--- a/Documents/Task 2 MoSCoW.xlsx
+++ b/Documents/Task 2 MoSCoW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamie\OneDrive\Documents\Advanced Computer Science\OOD\OODAssignment\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="8_{B9179844-C382-405C-8F12-AD4A63EB8632}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{8396A8C0-6BB2-4018-A2E4-66E181A3A701}"/>
+  <xr:revisionPtr revIDLastSave="150" documentId="8_{B9179844-C382-405C-8F12-AD4A63EB8632}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{C8D2976D-3CA4-4E1F-ADD6-46120F56ED8C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" xr2:uid="{7B3F0984-0B5A-4F26-A680-865670CF5CC5}"/>
   </bookViews>
@@ -498,7 +498,7 @@
   <dimension ref="B2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
